--- a/HLS_man/COP25/COP25_man_malaysia.xlsx
+++ b/HLS_man/COP25/COP25_man_malaysia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D2F84-4B59-4F09-AAC5-2E548EBA1628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CBFE1D-A962-499B-BDCC-B73D9E7D9AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>COP25_malaysia</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -153,45 +147,12 @@
 Thank you.</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>moral responsiblity, UNFCCC agreements and policies, the convention, mitigation</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t xml:space="preserve">Prescribing the moral obligation of developed countries to take the lead. </t>
-  </si>
-  <si>
-    <t>moral responsiblity, reporting, emissions, implementation</t>
-  </si>
-  <si>
-    <t>multinational(developed countries)</t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
-    <t>general normative statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value judgement on the need to take on action. No direct link to a distributive justice principle. </t>
-  </si>
-  <si>
     <t>GCF</t>
   </si>
   <si>
@@ -201,7 +162,22 @@
     <t>prioritarian</t>
   </si>
   <si>
-    <t>Value judgement on the need for redistribution of finances. The main principle of GCF is prioritarian</t>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the moral obligation of developed countries to take the lead, motivated by the foundations of the convention, these are egalitarian. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value judgement on the need to take on action by developed countries. Egalitarian motviation by means of the focus on developed countries to contribute. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value judgement on the need for redistribution of finances. Motivated by the prioritarian idea to help the worst off. </t>
   </si>
 </sst>
 </file>
@@ -571,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +558,7 @@
     <col min="1" max="1" width="44.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,225 +572,213 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
